--- a/Golang_Curriculum_Updated-Version__Sheet2_.xlsx
+++ b/Golang_Curriculum_Updated-Version__Sheet2_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diwakar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diwakar/D-My-FIles/students/2024/untitled folder/genspark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAEDC8D-396E-AA4E-B08F-6410F75C0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A1567A-215F-C345-8CAD-FF7CCF3ACE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,23 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -254,6 +266,12 @@
   </si>
   <si>
     <t>- Capstone Project: Design and build a fully functional, scalable, and secure microservice-based application, such as a real-time chat application or an online marketplace, incorporating best practices in Golang, deployment, and system design.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-n15VR9HWiI&amp;ab_channel=BeABetterDev</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zCIpWFYDJ8s&amp;list=PL9nWRykSBSFgQrO66TmO1vHFP6yuPF5G-&amp;ab_channel=BeABetterDev</t>
   </si>
 </sst>
 </file>
@@ -593,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1003,32 +1021,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>77</v>
       </c>
